--- a/data/pca/factorExposure/factorExposure_2013-02-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-08.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006581373822718463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00184391263630511</v>
+      </c>
+      <c r="C2">
+        <v>-0.03214903950989039</v>
+      </c>
+      <c r="D2">
+        <v>-0.005528647374119731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001140237973989958</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.00624469039582778</v>
+      </c>
+      <c r="C4">
+        <v>-0.08455376171029505</v>
+      </c>
+      <c r="D4">
+        <v>-0.07865803548811758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001628402879993846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01410000614519332</v>
+      </c>
+      <c r="C6">
+        <v>-0.113287207795986</v>
+      </c>
+      <c r="D6">
+        <v>-0.03158351327036129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001610994744608891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004934986038508871</v>
+      </c>
+      <c r="C7">
+        <v>-0.0570877576067853</v>
+      </c>
+      <c r="D7">
+        <v>-0.03644009000626106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006144542349485135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005773633669667941</v>
+      </c>
+      <c r="C8">
+        <v>-0.03820997323857448</v>
+      </c>
+      <c r="D8">
+        <v>-0.04576402210845956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003641303010261011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004380331165945157</v>
+      </c>
+      <c r="C9">
+        <v>-0.07070513646567869</v>
+      </c>
+      <c r="D9">
+        <v>-0.07126735669978827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002733654371870492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005379131444413244</v>
+      </c>
+      <c r="C10">
+        <v>-0.05698693206843963</v>
+      </c>
+      <c r="D10">
+        <v>0.1973058530385019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002788668675258909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005730020758959706</v>
+      </c>
+      <c r="C11">
+        <v>-0.08071285272049881</v>
+      </c>
+      <c r="D11">
+        <v>-0.06086794686574289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0003540426986133278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004039326855859151</v>
+      </c>
+      <c r="C12">
+        <v>-0.06398725664693936</v>
+      </c>
+      <c r="D12">
+        <v>-0.04748654356383188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003045035459825724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008658827373003284</v>
+      </c>
+      <c r="C13">
+        <v>-0.0660063351293584</v>
+      </c>
+      <c r="D13">
+        <v>-0.06308560838419001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001006248091319302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001562116950416014</v>
+      </c>
+      <c r="C14">
+        <v>-0.04633585937139367</v>
+      </c>
+      <c r="D14">
+        <v>-0.006937304309757243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007602089825295133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006033229415176483</v>
+      </c>
+      <c r="C15">
+        <v>-0.04280260648590097</v>
+      </c>
+      <c r="D15">
+        <v>-0.02757229720171569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001159484825005133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005058127107463725</v>
+      </c>
+      <c r="C16">
+        <v>-0.06575901261646812</v>
+      </c>
+      <c r="D16">
+        <v>-0.04702761346601705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0005654052908326093</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008870112215063298</v>
+      </c>
+      <c r="C20">
+        <v>-0.06590826392717211</v>
+      </c>
+      <c r="D20">
+        <v>-0.04391107361140521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005369812322825521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01001871369376452</v>
+      </c>
+      <c r="C21">
+        <v>-0.02190118341538754</v>
+      </c>
+      <c r="D21">
+        <v>-0.03711770912988974</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01772331413427787</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006680340028581044</v>
+      </c>
+      <c r="C22">
+        <v>-0.09536733935816719</v>
+      </c>
+      <c r="D22">
+        <v>-0.1065527962009662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01802984595122297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006498287192503511</v>
+      </c>
+      <c r="C23">
+        <v>-0.09618297055186804</v>
+      </c>
+      <c r="D23">
+        <v>-0.1067392887751087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001520597607969264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005416825109703354</v>
+      </c>
+      <c r="C24">
+        <v>-0.07619469649492676</v>
+      </c>
+      <c r="D24">
+        <v>-0.06093865469254851</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003856821572107224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002963466821460866</v>
+      </c>
+      <c r="C25">
+        <v>-0.07789765515077007</v>
+      </c>
+      <c r="D25">
+        <v>-0.06641449077419938</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005213266048757949</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.0035970991657963</v>
+      </c>
+      <c r="C26">
+        <v>-0.04146752506441626</v>
+      </c>
+      <c r="D26">
+        <v>-0.02158504752404463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006475917320017683</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009533213469797855</v>
+      </c>
+      <c r="C28">
+        <v>-0.1056021660183084</v>
+      </c>
+      <c r="D28">
+        <v>0.3162785179032721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001189186509526624</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003193397279446479</v>
+      </c>
+      <c r="C29">
+        <v>-0.04954948051570512</v>
+      </c>
+      <c r="D29">
+        <v>-0.004965069823414477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003361378645312288</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009469811774286145</v>
+      </c>
+      <c r="C30">
+        <v>-0.1430374560119831</v>
+      </c>
+      <c r="D30">
+        <v>-0.09334992484344756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0008997466338228796</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006272198912565827</v>
+      </c>
+      <c r="C31">
+        <v>-0.04568768141254304</v>
+      </c>
+      <c r="D31">
+        <v>-0.03051031104119576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0008434143751126172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004082161594856836</v>
+      </c>
+      <c r="C32">
+        <v>-0.04125439272444652</v>
+      </c>
+      <c r="D32">
+        <v>-0.01855041026020815</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002547055099572283</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008326044563661364</v>
+      </c>
+      <c r="C33">
+        <v>-0.08628870557740727</v>
+      </c>
+      <c r="D33">
+        <v>-0.06863060628602707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.00417924113962575</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003950359389326032</v>
+      </c>
+      <c r="C34">
+        <v>-0.05769348783382852</v>
+      </c>
+      <c r="D34">
+        <v>-0.0531726160880025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002039669640981777</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005080272026833513</v>
+      </c>
+      <c r="C35">
+        <v>-0.04016612813215226</v>
+      </c>
+      <c r="D35">
+        <v>-0.016882631900081</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004275557717268444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001202534276712405</v>
+      </c>
+      <c r="C36">
+        <v>-0.02459204184380025</v>
+      </c>
+      <c r="D36">
+        <v>-0.02213695280884117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002616679735623315</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009522407936588878</v>
+      </c>
+      <c r="C38">
+        <v>-0.03521574752767206</v>
+      </c>
+      <c r="D38">
+        <v>-0.01583447540195636</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01176922197901633</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0005695687443965104</v>
+      </c>
+      <c r="C39">
+        <v>-0.1166029975546902</v>
+      </c>
+      <c r="D39">
+        <v>-0.0711278866637368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009072071011507336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002541433203795382</v>
+      </c>
+      <c r="C40">
+        <v>-0.08841440107259137</v>
+      </c>
+      <c r="D40">
+        <v>-0.01798547147627202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001351071569178081</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007260696791214039</v>
+      </c>
+      <c r="C41">
+        <v>-0.03735017549849219</v>
+      </c>
+      <c r="D41">
+        <v>-0.03478096715768426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003183118932252493</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003863479588157187</v>
+      </c>
+      <c r="C43">
+        <v>-0.05280928447519431</v>
+      </c>
+      <c r="D43">
+        <v>-0.02349145210768418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002822497018546345</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00329846533220241</v>
+      </c>
+      <c r="C44">
+        <v>-0.1102467928597453</v>
+      </c>
+      <c r="D44">
+        <v>-0.07071645593937283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001252448967402086</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002243594114300546</v>
+      </c>
+      <c r="C46">
+        <v>-0.03325074290085282</v>
+      </c>
+      <c r="D46">
+        <v>-0.03354317865321744</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0003409100952483549</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002659115948940028</v>
+      </c>
+      <c r="C47">
+        <v>-0.03736522695950702</v>
+      </c>
+      <c r="D47">
+        <v>-0.02271548708335699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003400953364536874</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006516173210080369</v>
+      </c>
+      <c r="C48">
+        <v>-0.02985844623003354</v>
+      </c>
+      <c r="D48">
+        <v>-0.03198162189342616</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0132763537035029</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01520530663308807</v>
+      </c>
+      <c r="C49">
+        <v>-0.1821693391158929</v>
+      </c>
+      <c r="D49">
+        <v>-0.01137413857750626</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001986593083969708</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003617511815849405</v>
+      </c>
+      <c r="C50">
+        <v>-0.04420675337425004</v>
+      </c>
+      <c r="D50">
+        <v>-0.03363303384174227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0009746623576754038</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00444107286248743</v>
+      </c>
+      <c r="C51">
+        <v>-0.02656022869915694</v>
+      </c>
+      <c r="D51">
+        <v>-0.01817399050703269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.000598790414035485</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02079394559561287</v>
+      </c>
+      <c r="C53">
+        <v>-0.1694030541277632</v>
+      </c>
+      <c r="D53">
+        <v>-0.02958475705457817</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001250435615246744</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008646696782771543</v>
+      </c>
+      <c r="C54">
+        <v>-0.05495207724347242</v>
+      </c>
+      <c r="D54">
+        <v>-0.04303031779726909</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004063664229998023</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.00951171695261506</v>
+      </c>
+      <c r="C55">
+        <v>-0.1096233178557666</v>
+      </c>
+      <c r="D55">
+        <v>-0.04101265375257831</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003391897269947871</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02001194101113662</v>
+      </c>
+      <c r="C56">
+        <v>-0.1748541905461707</v>
+      </c>
+      <c r="D56">
+        <v>-0.02990922979537639</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007170503188175934</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01972867832060217</v>
+      </c>
+      <c r="C58">
+        <v>-0.1111157751331863</v>
+      </c>
+      <c r="D58">
+        <v>-0.05230656384717605</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006927067568876711</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009706769937038739</v>
+      </c>
+      <c r="C59">
+        <v>-0.162251984517132</v>
+      </c>
+      <c r="D59">
+        <v>0.3132856993226986</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004745282855765737</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02368499713463778</v>
+      </c>
+      <c r="C60">
+        <v>-0.2205818485925635</v>
+      </c>
+      <c r="D60">
+        <v>-0.03309792878491846</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01356338746175138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001693831887447857</v>
+      </c>
+      <c r="C61">
+        <v>-0.09617229149746753</v>
+      </c>
+      <c r="D61">
+        <v>-0.05803125831251505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1661281135073161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1445668747897254</v>
+      </c>
+      <c r="C62">
+        <v>-0.09097484948555755</v>
+      </c>
+      <c r="D62">
+        <v>-0.0464899072896529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0008811700528137118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006241240142716865</v>
+      </c>
+      <c r="C63">
+        <v>-0.05550473188780874</v>
+      </c>
+      <c r="D63">
+        <v>-0.0233273377632323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.001080945126730721</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01531742216623279</v>
+      </c>
+      <c r="C64">
+        <v>-0.1049634497895785</v>
+      </c>
+      <c r="D64">
+        <v>-0.06004318489414976</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002411074662406597</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01783256362952639</v>
+      </c>
+      <c r="C65">
+        <v>-0.1219261455209251</v>
+      </c>
+      <c r="D65">
+        <v>-0.01661079742929431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007215535852390429</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01308878154194835</v>
+      </c>
+      <c r="C66">
+        <v>-0.1600226021389472</v>
+      </c>
+      <c r="D66">
+        <v>-0.1140779448868175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003948450323720422</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01567076877886816</v>
+      </c>
+      <c r="C67">
+        <v>-0.06605846307913942</v>
+      </c>
+      <c r="D67">
+        <v>-0.02549210134890053</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007029367652953647</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005605886052675292</v>
+      </c>
+      <c r="C68">
+        <v>-0.08635527377921554</v>
+      </c>
+      <c r="D68">
+        <v>0.2557231299159635</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002396583349859433</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006122656778477432</v>
+      </c>
+      <c r="C69">
+        <v>-0.05039463384450207</v>
+      </c>
+      <c r="D69">
+        <v>-0.03754561413679393</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0002877159204983159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001874443684681035</v>
+      </c>
+      <c r="C70">
+        <v>-0.003058323492491018</v>
+      </c>
+      <c r="D70">
+        <v>-0.002686402895457265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001151578928936344</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.00586879872981278</v>
+      </c>
+      <c r="C71">
+        <v>-0.09686200048880293</v>
+      </c>
+      <c r="D71">
+        <v>0.3063769527091482</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003774720225704276</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01603446211875397</v>
+      </c>
+      <c r="C72">
+        <v>-0.1525504591455619</v>
+      </c>
+      <c r="D72">
+        <v>-0.02090013751939601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01124688775024087</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03042814041954144</v>
+      </c>
+      <c r="C73">
+        <v>-0.2778822204814951</v>
+      </c>
+      <c r="D73">
+        <v>-0.04814440962538825</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004237393712770475</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001895824225916877</v>
+      </c>
+      <c r="C74">
+        <v>-0.1055204368516487</v>
+      </c>
+      <c r="D74">
+        <v>-0.03644472553191639</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002398865231694622</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01103405583412255</v>
+      </c>
+      <c r="C75">
+        <v>-0.1272351456797963</v>
+      </c>
+      <c r="D75">
+        <v>-0.0232077816861248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009584200145932189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02177006420957947</v>
+      </c>
+      <c r="C76">
+        <v>-0.1499257310614306</v>
+      </c>
+      <c r="D76">
+        <v>-0.06029453369580026</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.0002875984275260722</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02374375854348391</v>
+      </c>
+      <c r="C77">
+        <v>-0.1285923309261351</v>
+      </c>
+      <c r="D77">
+        <v>-0.08495866255211638</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0007092018395695346</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01463444953512616</v>
+      </c>
+      <c r="C78">
+        <v>-0.09460655691499409</v>
+      </c>
+      <c r="D78">
+        <v>-0.07048036653055034</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02402136941248025</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03752725668834649</v>
+      </c>
+      <c r="C79">
+        <v>-0.1551229615669956</v>
+      </c>
+      <c r="D79">
+        <v>-0.03512655746482821</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006278253303615243</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01050999825675452</v>
+      </c>
+      <c r="C80">
+        <v>-0.0414208345739162</v>
+      </c>
+      <c r="D80">
+        <v>-0.02919276104950468</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.00114975912865346</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01547317799385656</v>
+      </c>
+      <c r="C81">
+        <v>-0.1281662682764254</v>
+      </c>
+      <c r="D81">
+        <v>-0.03951943247526505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005596349071097176</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01977104688507246</v>
+      </c>
+      <c r="C82">
+        <v>-0.142090539066432</v>
+      </c>
+      <c r="D82">
+        <v>-0.04254728364545554</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008429449914206508</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01007098897938979</v>
+      </c>
+      <c r="C83">
+        <v>-0.05728939046068904</v>
+      </c>
+      <c r="D83">
+        <v>-0.05861724444066982</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01335413085269068</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.0116633199301062</v>
+      </c>
+      <c r="C84">
+        <v>-0.03624189619061233</v>
+      </c>
+      <c r="D84">
+        <v>0.01205194549557811</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01344996816429636</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02816554186641843</v>
+      </c>
+      <c r="C85">
+        <v>-0.1252101821586849</v>
+      </c>
+      <c r="D85">
+        <v>-0.04455036519547648</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002279234434854444</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005835286135390573</v>
+      </c>
+      <c r="C86">
+        <v>-0.04910222631842229</v>
+      </c>
+      <c r="D86">
+        <v>-0.0205854681375528</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.002995608690932002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01016891223523446</v>
+      </c>
+      <c r="C87">
+        <v>-0.1308571925687316</v>
+      </c>
+      <c r="D87">
+        <v>-0.07172997354716926</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01189020401855481</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002824184623791861</v>
+      </c>
+      <c r="C88">
+        <v>-0.06726452941442317</v>
+      </c>
+      <c r="D88">
+        <v>-0.0139996920923547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.0143785324108923</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001350136599644861</v>
+      </c>
+      <c r="C89">
+        <v>-0.1466735769418807</v>
+      </c>
+      <c r="D89">
+        <v>0.3430140642534975</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003573023499501762</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006862988480295367</v>
+      </c>
+      <c r="C90">
+        <v>-0.1202931609493888</v>
+      </c>
+      <c r="D90">
+        <v>0.3238935051390948</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0005249956823365194</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01050987175403185</v>
+      </c>
+      <c r="C91">
+        <v>-0.1031502338706241</v>
+      </c>
+      <c r="D91">
+        <v>-0.02040143278914434</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008286635393178813</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0008180120328171994</v>
+      </c>
+      <c r="C92">
+        <v>-0.1355358234920749</v>
+      </c>
+      <c r="D92">
+        <v>0.3289352099052934</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.000574870832912996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004827820659777811</v>
+      </c>
+      <c r="C93">
+        <v>-0.1042771260093414</v>
+      </c>
+      <c r="D93">
+        <v>0.3063040241039011</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003141306688592436</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02269266123683835</v>
+      </c>
+      <c r="C94">
+        <v>-0.1494988391958047</v>
+      </c>
+      <c r="D94">
+        <v>-0.05055918772933299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004127158726923497</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01631338445758532</v>
+      </c>
+      <c r="C95">
+        <v>-0.1265617199054998</v>
+      </c>
+      <c r="D95">
+        <v>-0.05720761708678457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0004060776192260997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03592368194633786</v>
+      </c>
+      <c r="C97">
+        <v>-0.2117399261962475</v>
+      </c>
+      <c r="D97">
+        <v>0.01204100195609217</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003486555405514139</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03656724090504239</v>
+      </c>
+      <c r="C98">
+        <v>-0.2489082903742212</v>
+      </c>
+      <c r="D98">
+        <v>-0.04667793592307908</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9842822663025799</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9822763029228946</v>
+      </c>
+      <c r="C99">
+        <v>0.1158362168319659</v>
+      </c>
+      <c r="D99">
+        <v>0.02740826420991627</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001099921979107721</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003230089705135677</v>
+      </c>
+      <c r="C101">
+        <v>-0.04973203103482568</v>
+      </c>
+      <c r="D101">
+        <v>-0.005069671268266933</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
